--- a/data/trans_orig/Q33-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Clase-trans_orig.xlsx
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,48</t>
+          <t>7,29; 7,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,45</t>
+          <t>7,19; 7,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,43</t>
+          <t>7,21; 7,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,53</t>
+          <t>7,3; 7,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,34</t>
+          <t>7,1; 7,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,44</t>
+          <t>7,21; 7,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,46</t>
+          <t>7,33; 7,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,36</t>
+          <t>7,2; 7,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,41</t>
+          <t>7,24; 7,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,43</t>
+          <t>7,16; 7,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,54</t>
+          <t>7,35; 7,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,27</t>
+          <t>7,01; 7,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,44</t>
+          <t>7,21; 7,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,57</t>
+          <t>7,42; 7,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,32</t>
+          <t>7,12; 7,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,41</t>
+          <t>7,26; 7,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,16</t>
+          <t>7,02; 7,15</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,61</t>
+          <t>7,42; 7,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,38</t>
+          <t>7,17; 7,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 8,53</t>
+          <t>6,93; 8,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,45</t>
+          <t>7,06; 7,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,24</t>
+          <t>6,93; 7,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,12</t>
+          <t>6,84; 7,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,53</t>
+          <t>7,37; 7,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,42</t>
+          <t>7,23; 7,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,48</t>
+          <t>6,94; 8,36</t>
         </is>
       </c>
     </row>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,37; 7,5</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 7,41</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>7,36; 7,5</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,26; 7,41</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,35; 7,5</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,23</t>
+          <t>7,06; 7,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,52</t>
+          <t>7,34; 7,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,32</t>
+          <t>7,1; 7,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,32</t>
+          <t>7,15; 7,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 6,97</t>
+          <t>6,4; 6,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,35</t>
+          <t>7,22; 7,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,41</t>
+          <t>7,29; 7,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,52 +1284,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,77</t>
+          <t>7,53; 7,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,6</t>
+          <t>7,35; 7,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,63</t>
+          <t>7,43; 7,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,26</t>
+          <t>7,04; 7,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,49</t>
+          <t>7,29; 7,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,96; 7,16</t>
+          <t>6,97; 7,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,23</t>
+          <t>7,03; 7,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,01</t>
+          <t>6,86; 7,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 7,56</t>
+          <t>7,41; 7,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,3</t>
+          <t>7,15; 7,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,03; 8,25</t>
+          <t>8,04; 8,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,91; 8,19</t>
+          <t>7,9; 8,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 8,2</t>
+          <t>7,95; 8,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,27 +1444,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,44</t>
+          <t>7,3; 7,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,34</t>
+          <t>7,18; 7,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,38</t>
+          <t>7,22; 7,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,32</t>
+          <t>7,16; 7,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 7,58</t>
+          <t>7,45; 7,59</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,53</t>
+          <t>7,39; 7,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,58</t>
+          <t>7,5; 7,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,44</t>
+          <t>7,35; 7,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,64</t>
+          <t>7,14; 7,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,13; 7,23</t>
+          <t>7,14; 7,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,76; 7,05</t>
+          <t>6,75; 7,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,49</t>
+          <t>7,44; 7,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,32</t>
+          <t>7,26; 7,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,38</t>
+          <t>7,03; 7,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q33-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
